--- a/results/I3_N5_M2_T15_C200_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>765.6842380949264</v>
+        <v>474.7142380949223</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.574894282166267</v>
+        <v>0.524964760722089</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.574894282166267</v>
+        <v>0.524964760722089</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>599.6200000000041</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.35</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,28 +590,6 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -947,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,34 +966,6 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.5199999999994</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7649999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>134.9399999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.9649999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.1299999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>245.8150000000003</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>265.4150000000004</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>258.4900000000004</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>265.8750000000005</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>264.2150000000005</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>178.4950000000001</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>189.2100000000002</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>177.3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.2850000000002</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>189.6300000000002</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>245.8150000000003</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>265.4150000000004</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>258.4900000000004</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>265.8750000000005</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>264.2150000000005</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>45.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>38.72499999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>42.39499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>38.17499999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>41.26499999999986</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>45.81500000000034</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1550,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>65.41500000000042</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>58.49000000000035</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>65.87500000000045</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1583,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>64.21500000000049</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1685,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1696,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1707,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1718,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1729,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1740,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1751,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1762,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1773,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1784,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
